--- a/reports/physics/lab1/measurement_protocols.xlsx
+++ b/reports/physics/lab1/measurement_protocols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vidra\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0CFAD3-AC41-4266-8923-327290007844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4332A3-7279-449D-B26D-31408C41779F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -476,12 +476,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -490,11 +487,14 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -634,22 +634,22 @@
                   <c:v>4.6928571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7828571428571429</c:v>
+                  <c:v>4.7785714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8728571428571428</c:v>
+                  <c:v>4.8642857142857139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9628571428571426</c:v>
+                  <c:v>4.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0528571428571425</c:v>
+                  <c:v>5.0357142857142847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1428571428571423</c:v>
+                  <c:v>5.1214285714285701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2328571428571431</c:v>
+                  <c:v>5.2071428571428555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -667,13 +667,13 @@
                   <c:v>0.70000000000000051</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2666666666666688</c:v>
+                  <c:v>3.0333333333333354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2666666666666688</c:v>
+                  <c:v>2.5666666666666682</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.5666666666666682</c:v>
+                  <c:v>4.6666666666666696</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.23333333333333348</c:v>
@@ -726,22 +726,22 @@
                   <c:v>4.6928571428571431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7828571428571429</c:v>
+                  <c:v>4.7785714285714285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8728571428571428</c:v>
+                  <c:v>4.8642857142857139</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9628571428571426</c:v>
+                  <c:v>4.9499999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0528571428571425</c:v>
+                  <c:v>5.0357142857142847</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.1428571428571423</c:v>
+                  <c:v>5.1214285714285701</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2328571428571431</c:v>
+                  <c:v>5.2071428571428555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -753,25 +753,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>5.0999999999999997E-2</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0.98699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>2.5459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>3.601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>2.7930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7E-2</c:v>
+                  <c:v>1.1879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5999999999999999E-2</c:v>
+                  <c:v>0.27700000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2121,11 +2121,11 @@
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:C33" si="0">ROUNDUP(B2-B$52,2)</f>
-        <v>4.6500000000000004</v>
+        <v>-0.31</v>
       </c>
       <c r="D2" s="1">
         <f t="shared" ref="D2:D33" si="1">C2*C2</f>
-        <v>21.622500000000002</v>
+        <v>9.6100000000000005E-2</v>
       </c>
       <c r="J2" s="4"/>
     </row>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" si="0"/>
-        <v>4.91</v>
+        <v>-0.05</v>
       </c>
       <c r="D3" s="1">
         <f t="shared" si="1"/>
-        <v>24.1081</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -2158,14 +2158,14 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>4.97</v>
+        <v>0.02</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>24.700899999999997</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="G4" s="4">
-        <f>(-MIN(B:B)+MAX(B:B))/7</f>
+        <f>(-MIN(B2:B51)+MAX(B2:B51))/7</f>
         <v>8.571428571428566E-2</v>
       </c>
       <c r="J4" s="4"/>
@@ -2179,12 +2179,13 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>23.814399999999999</v>
-      </c>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2196,12 +2197,13 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>25.603599999999997</v>
-      </c>
+        <v>1.21E-2</v>
+      </c>
+      <c r="G6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2213,11 +2215,11 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>5.03</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>25.300900000000002</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J7" s="4"/>
     </row>
@@ -2230,12 +2232,13 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>4.84</v>
+        <v>-0.12</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>23.425599999999999</v>
-      </c>
+        <v>1.44E-2</v>
+      </c>
+      <c r="G8" s="4"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2247,12 +2250,13 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>4.91</v>
+        <v>-0.05</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>24.1081</v>
-      </c>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G9" s="4"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2264,12 +2268,13 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="1"/>
-        <v>25.603599999999997</v>
-      </c>
+        <v>1.21E-2</v>
+      </c>
+      <c r="G10" s="4"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -2281,12 +2286,13 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="G11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2298,12 +2304,13 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>4.84</v>
+        <v>-0.12</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" si="1"/>
-        <v>23.425599999999999</v>
-      </c>
+        <v>1.44E-2</v>
+      </c>
+      <c r="G12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -2315,12 +2322,13 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>25.603599999999997</v>
-      </c>
+        <v>1.21E-2</v>
+      </c>
+      <c r="G13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -2332,12 +2340,13 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>23.814399999999999</v>
-      </c>
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="G14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -2349,12 +2358,13 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>4.8099999999999996</v>
+        <v>-0.15000000000000002</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>23.136099999999995</v>
-      </c>
+        <v>2.2500000000000006E-2</v>
+      </c>
+      <c r="G15" s="4"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -2366,11 +2376,11 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>4.84</v>
+        <v>-0.12</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>23.425599999999999</v>
+        <v>1.44E-2</v>
       </c>
       <c r="J16" s="4"/>
     </row>
@@ -2383,11 +2393,11 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>5.07</v>
+        <v>0.12</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>25.704900000000002</v>
+        <v>1.44E-2</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -2400,11 +2410,11 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="1"/>
-        <v>23.814399999999999</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J18" s="4"/>
     </row>
@@ -2417,11 +2427,11 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="0"/>
-        <v>4.93</v>
+        <v>-0.03</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>24.304899999999996</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="J19" s="4"/>
     </row>
@@ -2434,11 +2444,11 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="1"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J20" s="4"/>
     </row>
@@ -2451,11 +2461,11 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>0.3</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>27.5625</v>
+        <v>0.09</v>
       </c>
       <c r="J21" s="4"/>
     </row>
@@ -2468,11 +2478,11 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="0"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>23.814399999999999</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J22" s="4"/>
     </row>
@@ -2485,11 +2495,11 @@
       </c>
       <c r="C23" s="2">
         <f t="shared" si="0"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J23" s="4"/>
     </row>
@@ -2502,11 +2512,11 @@
       </c>
       <c r="C24" s="2">
         <f t="shared" si="0"/>
-        <v>4.75</v>
+        <v>-0.21000000000000002</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>22.5625</v>
+        <v>4.4100000000000007E-2</v>
       </c>
       <c r="J24" s="4"/>
     </row>
@@ -2519,11 +2529,11 @@
       </c>
       <c r="C25" s="2">
         <f t="shared" si="0"/>
-        <v>4.9400000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>24.403600000000004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J25" s="4"/>
     </row>
@@ -2536,11 +2546,11 @@
       </c>
       <c r="C26" s="2">
         <f t="shared" si="0"/>
-        <v>4.97</v>
+        <v>0.02</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>24.700899999999997</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J26" s="4"/>
     </row>
@@ -2553,11 +2563,11 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J27" s="4"/>
     </row>
@@ -2570,11 +2580,11 @@
       </c>
       <c r="C28" s="2">
         <f t="shared" si="0"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>23.814399999999999</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J28" s="4"/>
     </row>
@@ -2587,11 +2597,11 @@
       </c>
       <c r="C29" s="2">
         <f t="shared" si="0"/>
-        <v>5.07</v>
+        <v>0.12</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>25.704900000000002</v>
+        <v>1.44E-2</v>
       </c>
       <c r="J29" s="4"/>
     </row>
@@ -2604,11 +2614,11 @@
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J30" s="4"/>
     </row>
@@ -2621,11 +2631,11 @@
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J31" s="4"/>
     </row>
@@ -2638,11 +2648,11 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>5.12</v>
+        <v>0.17</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>26.214400000000001</v>
+        <v>2.8900000000000006E-2</v>
       </c>
       <c r="J32" s="4"/>
     </row>
@@ -2655,11 +2665,11 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>4.9000000000000004</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>24.010000000000005</v>
+        <v>3.6000000000000008E-3</v>
       </c>
       <c r="J33" s="4"/>
     </row>
@@ -2672,11 +2682,11 @@
       </c>
       <c r="C34" s="2">
         <f t="shared" ref="C34:C51" si="2">ROUNDUP(B34-B$52,2)</f>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ref="D34:D51" si="3">C34*C34</f>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J34" s="4"/>
     </row>
@@ -2689,11 +2699,11 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="3"/>
-        <v>24.010000000000005</v>
+        <v>3.6000000000000008E-3</v>
       </c>
       <c r="J35" s="4"/>
     </row>
@@ -2706,11 +2716,11 @@
       </c>
       <c r="C36" s="2">
         <f t="shared" si="2"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="3"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J36" s="4"/>
     </row>
@@ -2723,11 +2733,11 @@
       </c>
       <c r="C37" s="2">
         <f t="shared" si="2"/>
-        <v>4.78</v>
+        <v>-0.18000000000000002</v>
       </c>
       <c r="D37" s="1">
         <f t="shared" si="3"/>
-        <v>22.848400000000002</v>
+        <v>3.2400000000000005E-2</v>
       </c>
       <c r="J37" s="4"/>
     </row>
@@ -2740,11 +2750,11 @@
       </c>
       <c r="C38" s="2">
         <f t="shared" si="2"/>
-        <v>4.91</v>
+        <v>-0.05</v>
       </c>
       <c r="D38" s="1">
         <f t="shared" si="3"/>
-        <v>24.1081</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J38" s="4"/>
     </row>
@@ -2757,11 +2767,11 @@
       </c>
       <c r="C39" s="2">
         <f t="shared" si="2"/>
-        <v>4.9400000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="D39" s="1">
         <f t="shared" si="3"/>
-        <v>24.403600000000004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J39" s="4"/>
     </row>
@@ -2774,11 +2784,11 @@
       </c>
       <c r="C40" s="2">
         <f t="shared" si="2"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D40" s="1">
         <f t="shared" si="3"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J40" s="4"/>
     </row>
@@ -2791,11 +2801,11 @@
       </c>
       <c r="C41" s="2">
         <f t="shared" si="2"/>
-        <v>4.88</v>
+        <v>-0.08</v>
       </c>
       <c r="D41" s="1">
         <f t="shared" si="3"/>
-        <v>23.814399999999999</v>
+        <v>6.4000000000000003E-3</v>
       </c>
       <c r="J41" s="4"/>
     </row>
@@ -2808,11 +2818,11 @@
       </c>
       <c r="C42" s="2">
         <f t="shared" si="2"/>
-        <v>4.9000000000000004</v>
+        <v>-6.0000000000000005E-2</v>
       </c>
       <c r="D42" s="1">
         <f t="shared" si="3"/>
-        <v>24.010000000000005</v>
+        <v>3.6000000000000008E-3</v>
       </c>
       <c r="J42" s="4"/>
     </row>
@@ -2825,11 +2835,11 @@
       </c>
       <c r="C43" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D43" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J43" s="4"/>
     </row>
@@ -2842,11 +2852,11 @@
       </c>
       <c r="C44" s="2">
         <f t="shared" si="2"/>
-        <v>4.97</v>
+        <v>0.02</v>
       </c>
       <c r="D44" s="1">
         <f t="shared" si="3"/>
-        <v>24.700899999999997</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J44" s="4"/>
     </row>
@@ -2859,11 +2869,11 @@
       </c>
       <c r="C45" s="2">
         <f t="shared" si="2"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D45" s="1">
         <f t="shared" si="3"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J45" s="4"/>
     </row>
@@ -2876,11 +2886,11 @@
       </c>
       <c r="C46" s="2">
         <f t="shared" si="2"/>
-        <v>5.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="D46" s="1">
         <f t="shared" si="3"/>
-        <v>25.603599999999997</v>
+        <v>1.21E-2</v>
       </c>
       <c r="J46" s="4"/>
     </row>
@@ -2893,11 +2903,11 @@
       </c>
       <c r="C47" s="2">
         <f t="shared" si="2"/>
-        <v>4.87</v>
+        <v>-0.09</v>
       </c>
       <c r="D47" s="1">
         <f t="shared" si="3"/>
-        <v>23.716900000000003</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="J47" s="4"/>
     </row>
@@ -2910,11 +2920,11 @@
       </c>
       <c r="C48" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D48" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J48" s="4"/>
     </row>
@@ -2927,11 +2937,11 @@
       </c>
       <c r="C49" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="D49" s="1">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="J49" s="4"/>
     </row>
@@ -2944,11 +2954,11 @@
       </c>
       <c r="C50" s="2">
         <f t="shared" si="2"/>
-        <v>4.9400000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="D50" s="1">
         <f t="shared" si="3"/>
-        <v>24.403600000000004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J50" s="4"/>
     </row>
@@ -2961,24 +2971,27 @@
       </c>
       <c r="C51" s="2">
         <f t="shared" si="2"/>
-        <v>4.9400000000000004</v>
+        <v>-0.02</v>
       </c>
       <c r="D51" s="1">
         <f t="shared" si="3"/>
-        <v>24.403600000000004</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="2">
+        <f>SUM(B2:B51)/50</f>
+        <v>4.9565999999999999</v>
+      </c>
       <c r="C52" s="2">
         <f>SUM(C2:C51)</f>
-        <v>247.83</v>
+        <v>7.999999999999978E-2</v>
       </c>
       <c r="D52" s="1">
         <f>1/(SQRTPI(2)*D53)</f>
-        <v>7.9660144015615428E-2</v>
+        <v>3.6070298515798722</v>
       </c>
       <c r="E52" t="s">
         <v>13</v>
@@ -2990,7 +3003,7 @@
       </c>
       <c r="D53" s="3">
         <f>SQRT(1/49*SUM(D2:D51))</f>
-        <v>5.0080537178445201</v>
+        <v>0.1106013248619766</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>15</v>
@@ -3012,7 +3025,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3046,23 +3059,23 @@
       <c r="A2" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="B2" s="17">
-        <f>COUNTIFS(Лист1!B2:B51, "&gt;="&amp;A2, Лист1!B2:B51, "&lt;="&amp;A3)</f>
+      <c r="B2" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A2, Лист1!B$2:B$51, "&lt;="&amp;A3)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <f>B2/(50*Лист1!$G$4)</f>
         <v>0.23333333333333348</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="18">
         <f>(A2+A3)/2</f>
         <v>4.6928571428571431</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D2-Лист1!$B$52)*(D2-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="G2" s="14"/>
+        <v>0.21</v>
+      </c>
+      <c r="G2" s="20"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12"/>
@@ -3073,37 +3086,38 @@
         <f>A2+Лист1!G4</f>
         <v>4.7357142857142858</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="G3" s="14"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="G3" s="20"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>4.74</v>
-      </c>
-      <c r="B4" s="17">
-        <f>COUNTIFS(Лист1!B4:B53, "&gt;="&amp;A4, Лист1!B4:B53, "&lt;="&amp;A5)</f>
+      <c r="A4" s="2">
+        <f>A3</f>
+        <v>4.7357142857142858</v>
+      </c>
+      <c r="B4" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A4, Лист1!B$2:B$51, "&lt;="&amp;A5)</f>
         <v>3</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="16">
         <f>B4/(50*Лист1!$G$4)</f>
         <v>0.70000000000000051</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="18">
         <f t="shared" ref="D4" si="0">(A4+A5)/2</f>
-        <v>4.7828571428571429</v>
-      </c>
-      <c r="E4" s="15">
+        <v>4.7785714285714285</v>
+      </c>
+      <c r="E4" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D4-Лист1!$B$52)*(D4-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="G4" s="20"/>
       <c r="K4" s="12"/>
       <c r="L4" s="12"/>
       <c r="M4" s="12"/>
@@ -3112,39 +3126,40 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>A4+Лист1!G4</f>
-        <v>4.8257142857142856</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="G5" s="14"/>
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4.83</v>
-      </c>
-      <c r="B6" s="17">
-        <f>COUNTIFS(Лист1!B6:B55, "&gt;="&amp;A6, Лист1!B6:B55, "&lt;="&amp;A7)</f>
-        <v>14</v>
-      </c>
-      <c r="C6" s="17">
+      <c r="A6" s="2">
+        <f>A5</f>
+        <v>4.8214285714285712</v>
+      </c>
+      <c r="B6" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A6, Лист1!B$2:B$51, "&lt;="&amp;A7)</f>
+        <v>13</v>
+      </c>
+      <c r="C6" s="16">
         <f>B6/(50*Лист1!$G$4)</f>
-        <v>3.2666666666666688</v>
-      </c>
-      <c r="D6" s="15">
+        <v>3.0333333333333354</v>
+      </c>
+      <c r="D6" s="18">
         <f t="shared" ref="D6" si="1">(A6+A7)/2</f>
-        <v>4.8728571428571428</v>
-      </c>
-      <c r="E6" s="15">
+        <v>4.8642857142857139</v>
+      </c>
+      <c r="E6" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D6-Лист1!$B$52)*(D6-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>0.05</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>2.5459999999999998</v>
+      </c>
+      <c r="G6" s="20"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
@@ -3153,37 +3168,38 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>A6+Лист1!G4</f>
-        <v>4.9157142857142855</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="G7" s="14"/>
+        <v>4.9071428571428566</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="G7" s="20"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>4.92</v>
-      </c>
-      <c r="B8" s="17">
-        <f>COUNTIFS(Лист1!B8:B57, "&gt;="&amp;A8, Лист1!B8:B57, "&lt;="&amp;A9)</f>
-        <v>14</v>
-      </c>
-      <c r="C8" s="17">
+      <c r="A8" s="2">
+        <f>A7</f>
+        <v>4.9071428571428566</v>
+      </c>
+      <c r="B8" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A8, Лист1!B$2:B$51, "&lt;="&amp;A9)</f>
+        <v>11</v>
+      </c>
+      <c r="C8" s="16">
         <f>B8/(50*Лист1!$G$4)</f>
-        <v>3.2666666666666688</v>
-      </c>
-      <c r="D8" s="15">
+        <v>2.5666666666666682</v>
+      </c>
+      <c r="D8" s="18">
         <f t="shared" ref="D8" si="2">(A8+A9)/2</f>
-        <v>4.9628571428571426</v>
-      </c>
-      <c r="E8" s="15">
+        <v>4.9499999999999993</v>
+      </c>
+      <c r="E8" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D8-Лист1!$B$52)*(D8-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>4.9000000000000002E-2</v>
+        <v>3.601</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
@@ -3193,36 +3209,37 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>A8+Лист1!G4</f>
-        <v>5.0057142857142853</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+        <v>4.992857142857142</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>5.01</v>
-      </c>
-      <c r="B10" s="17">
-        <f>COUNTIFS(Лист1!B10:B59, "&gt;="&amp;A10, Лист1!B10:B59, "&lt;="&amp;A11)</f>
-        <v>11</v>
-      </c>
-      <c r="C10" s="17">
+      <c r="A10" s="2">
+        <f>A9</f>
+        <v>4.992857142857142</v>
+      </c>
+      <c r="B10" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A10, Лист1!B$2:B$51, "&lt;="&amp;A11)</f>
+        <v>20</v>
+      </c>
+      <c r="C10" s="16">
         <f>B10/(50*Лист1!$G$4)</f>
-        <v>2.5666666666666682</v>
-      </c>
-      <c r="D10" s="15">
+        <v>4.6666666666666696</v>
+      </c>
+      <c r="D10" s="18">
         <f t="shared" ref="D10" si="3">(A10+A11)/2</f>
-        <v>5.0528571428571425</v>
-      </c>
-      <c r="E10" s="15">
+        <v>5.0357142857142847</v>
+      </c>
+      <c r="E10" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D10-Лист1!$B$52)*(D10-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
@@ -3232,12 +3249,12 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>A10+Лист1!G4</f>
-        <v>5.0957142857142852</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+        <v>5.0785714285714274</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -3245,23 +3262,24 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="B12" s="17">
-        <f>COUNTIFS(Лист1!B12:B61, "&gt;="&amp;A12, Лист1!B12:B61, "&lt;="&amp;A13)</f>
+        <f>A11</f>
+        <v>5.0785714285714274</v>
+      </c>
+      <c r="B12" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A12, Лист1!B$2:B$51, "&lt;="&amp;A13)</f>
         <v>1</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="16">
         <f>B12/(50*Лист1!$G$4)</f>
         <v>0.23333333333333348</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="18">
         <f t="shared" ref="D12" si="4">(A12+A13)/2</f>
-        <v>5.1428571428571423</v>
-      </c>
-      <c r="E12" s="15">
+        <v>5.1214285714285701</v>
+      </c>
+      <c r="E12" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D12-Лист1!$B$52)*(D12-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>4.7E-2</v>
+        <v>1.1879999999999999</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
@@ -3271,36 +3289,37 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>A12+Лист1!G4</f>
-        <v>5.1857142857142851</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>5.1642857142857128</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>5.19</v>
-      </c>
-      <c r="B14" s="17">
-        <f>COUNTIFS(Лист1!B14:B63, "&gt;="&amp;A14, Лист1!B14:B63, "&lt;="&amp;A15)</f>
+      <c r="A14" s="2">
+        <f>A13</f>
+        <v>5.1642857142857128</v>
+      </c>
+      <c r="B14" s="16">
+        <f>COUNTIFS(Лист1!B$2:B$51, "&gt;="&amp;A14, Лист1!B$2:B$51, "&lt;="&amp;A15)</f>
         <v>1</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <f>B14/(50*Лист1!$G$4)</f>
         <v>0.23333333333333348</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="18">
         <f t="shared" ref="D14" si="5">(A14+A15)/2</f>
-        <v>5.2328571428571431</v>
-      </c>
-      <c r="E14" s="15">
+        <v>5.2071428571428555</v>
+      </c>
+      <c r="E14" s="18">
         <f>ROUND(1/(Лист1!$D$53*SQRTPI(2))*EXP((-1)*(D14-Лист1!$B$52)*(D14-Лист1!$B$52)/2/Лист1!$D$53/Лист1!$D$53),3)</f>
-        <v>4.5999999999999999E-2</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
@@ -3310,12 +3329,12 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>A14+Лист1!G4</f>
-        <v>5.2757142857142858</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+        <v>5.2499999999999982</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -3323,134 +3342,91 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="19"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="E4:E5"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="G6:G7"/>
@@ -3467,6 +3443,49 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E8:E9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3479,7 +3498,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3488,32 +3507,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15"/>
+      <c r="A1" s="18"/>
       <c r="B1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="22"/>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
+      <c r="A2" s="19"/>
       <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -3521,19 +3540,19 @@
       </c>
       <c r="B3" s="8">
         <f>Лист1!$B$52-Лист1!$D$53</f>
-        <v>-5.0080537178445201</v>
+        <v>4.8459986751380235</v>
       </c>
       <c r="C3" s="8">
         <f>Лист1!$B$52+Лист1!$D$53</f>
-        <v>5.0080537178445201</v>
+        <v>5.0672013248619763</v>
       </c>
       <c r="D3" s="7">
-        <f>COUNTIF(Лист1!B:B, "&lt;="&amp;C3)</f>
-        <v>35</v>
+        <f>COUNTIFS(Лист1!B$1:B$51, "&lt;="&amp;C3, Лист1!B$1:B$51, "&gt;="&amp;B3)</f>
+        <v>39</v>
       </c>
       <c r="E3" s="7">
         <f>D3/50</f>
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="F3" s="7">
         <v>0.68300000000000005</v>
@@ -3545,19 +3564,19 @@
       </c>
       <c r="B4" s="8">
         <f>Лист1!$B$52-(2*Лист1!$D$53)</f>
-        <v>-10.01610743568904</v>
+        <v>4.7353973502760471</v>
       </c>
       <c r="C4" s="8">
         <f>Лист1!$B$52+(2*Лист1!$D$53)</f>
-        <v>10.01610743568904</v>
+        <v>5.1778026497239527</v>
       </c>
       <c r="D4" s="7">
-        <f>COUNTIF(Лист1!B:B, "&lt;="&amp;C4)</f>
-        <v>50</v>
+        <f>COUNTIFS(Лист1!B$1:B$51, "&lt;="&amp;C4, Лист1!B$1:B$51, "&gt;="&amp;B4)</f>
+        <v>48</v>
       </c>
       <c r="E4" s="7">
         <f t="shared" ref="E4:E5" si="0">D4/50</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="F4" s="7">
         <v>0.95399999999999996</v>
@@ -3569,14 +3588,14 @@
       </c>
       <c r="B5" s="8">
         <f>Лист1!$B$52-(3*Лист1!$D$53)</f>
-        <v>-15.02416115353356</v>
+        <v>4.6247960254140699</v>
       </c>
       <c r="C5" s="8">
         <f>Лист1!$B$52+(3*Лист1!$D$53)</f>
-        <v>15.02416115353356</v>
+        <v>5.2884039745859299</v>
       </c>
       <c r="D5" s="7">
-        <f>COUNTIF(Лист1!B:B, "&lt;="&amp;C5)</f>
+        <f>COUNTIFS(Лист1!B$1:B$51, "&lt;="&amp;C5, Лист1!B$1:B$51, "&gt;="&amp;B5)</f>
         <v>50</v>
       </c>
       <c r="E5" s="7">
@@ -3595,8 +3614,8 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>SQRT(SUM(Лист1!D2:D51 )/(50*(50-1)))</f>
-        <v>0.7082457488868722</v>
+        <f>SQRT(SUM(Лист1!D2:D51)/(50*(50-1)))</f>
+        <v>1.5641389363623991E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -3607,7 +3626,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>2.0095752344892*A8</f>
-        <v>1.4232731168953152</v>
+        <v>3.1432548698141556E-2</v>
       </c>
     </row>
   </sheetData>
